--- a/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Presencial.xlsx
+++ b/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7713010875075833</v>
+        <v>0.7268603960635293</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7837771664139672</v>
+        <v>0.7692595145161403</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.885910903995478</v>
+        <v>0.8812253802316599</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23199304270021695</v>
+        <v>0.20410793801416488</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.6248584546558114</v>
+        <v>3.333873173158205</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.012556907584371326</v>
+        <v>0.014293616131371404</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.2111692844677138</v>
+        <v>1.6529399919452274</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6969954866811495</v>
+        <v>0.5708158380656482</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1850084603770552</v>
+        <v>0.1153034843965896</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7380033858421768</v>
+        <v>0.7249973183242714</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7495465167176432</v>
+        <v>0.7602209518605157</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8560458699620989</v>
+        <v>0.8748120873330152</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.21387903173264816</v>
+        <v>0.20899145588506127</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.992757405065184</v>
+        <v>3.1705061712409535</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.014454743472438572</v>
+        <v>0.014665255341582953</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03989166722565406</v>
+        <v>0.053105467190719055</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.16769779443738356</v>
+        <v>0.12113561858259606</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7455580286914677</v>
+        <v>0.6920387587664227</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7582772742778353</v>
+        <v>0.7387550619692563</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8632598392283773</v>
+        <v>0.8610179428016542</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.22189840394002577</v>
+        <v>0.19071072760490387</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.1369713874126868</v>
+        <v>2.827825363959086</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.01405428094831748</v>
+        <v>0.016108041294365313</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04010007872573985</v>
+        <v>0.053998030746830114</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.18082881129797362</v>
+        <v>0.1080683278242704</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.741989330555194</v>
+        <v>0.7041330659552916</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7512215375693935</v>
+        <v>0.747987558949152</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8611504342606033</v>
+        <v>0.8643718101092783</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.21538644683911853</v>
+        <v>0.19829279487565474</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.0196405678764764</v>
+        <v>2.9680580682055773</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.014233094673332948</v>
+        <v>0.015461666875488495</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.041010367355912375</v>
+        <v>0.05304888814927877</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17110887269273636</v>
+        <v>0.11204256549674063</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7434306843788157</v>
+        <v>0.715188849877418</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7560262148333013</v>
+        <v>0.7425980775323039</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8659330613894853</v>
+        <v>0.8587519206855366</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2197918118867434</v>
+        <v>0.19381792003881398</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.09880102207184</v>
+        <v>2.884974868925076</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.014175040555589349</v>
+        <v>0.015076262672234643</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04227335931706245</v>
+        <v>0.043335928827025645</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.16769779443738356</v>
+        <v>0.1153034843965896</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7556242926951945</v>
+        <v>0.6962319278597945</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7706550014206036</v>
+        <v>0.7419752829982391</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8469885365542585</v>
+        <v>0.8584633546756699</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2339962667551543</v>
+        <v>0.1933097250112795</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.3602433285843483</v>
+        <v>2.875597700948842</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.013391994389671324</v>
+        <v>0.015776841426126658</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03946066218316317</v>
+        <v>0.04328999404378611</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.1923545154918063</v>
+        <v>0.11871248240535565</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7563819612854675</v>
+        <v>0.6967871527911701</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7707764694753303</v>
+        <v>0.7419526576480845</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8471654987837034</v>
+        <v>0.8580805494391681</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.23411949572589047</v>
+        <v>0.19329129706550244</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.362553869190914</v>
+        <v>2.8752578921593286</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.013345799291243177</v>
+        <v>0.015742550613133694</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03948111016928926</v>
+        <v>0.04328154133889257</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1923545154918063</v>
+        <v>0.11506129460331527</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7711342376915273</v>
+        <v>0.7257435436651803</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7877958447782085</v>
+        <v>0.7688835279095022</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.877127926436247</v>
+        <v>0.8845048962701972</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2523335553361082</v>
+        <v>0.2170588629242355</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7124430667006494</v>
+        <v>3.326822709583557</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.012589512706730265</v>
+        <v>0.014620986811024235</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.042358611068360606</v>
+        <v>0.05691052661941073</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20690053752421392</v>
+        <v>0.12631422177508492</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7813112581897025</v>
+        <v>0.719857573701872</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7880335494918423</v>
+        <v>0.7656520822281817</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8775408135104952</v>
+        <v>0.8693317744987393</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25260201800809856</v>
+        <v>0.2139991849224123</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.717727723432885</v>
+        <v>3.2671597405601367</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.011937905393968105</v>
+        <v>0.014516675565604565</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04244536550418676</v>
+        <v>0.053772314845918184</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20690053752421392</v>
+        <v>0.12635982152343925</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7618675505055986</v>
+        <v>0.7336596046704736</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.775427323158363</v>
+        <v>0.7684909585993709</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8889085115417004</v>
+        <v>0.8757555002843933</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2389071473002343</v>
+        <v>0.21668388783734185</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.452901457398467</v>
+        <v>3.3194857269936517</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.013191939986157291</v>
+        <v>0.013653894007983404</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04892372814698246</v>
+        <v>0.0546277721311224</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17209449602688293</v>
+        <v>0.12635982152343925</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.761166229478046</v>
+        <v>0.7097318639157507</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7746629467748126</v>
+        <v>0.7603800076872015</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8884029685115363</v>
+        <v>0.8835847281407411</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23811088810674663</v>
+        <v>0.20913577277520853</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.43779656158308</v>
+        <v>3.1732744849378265</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.013234564249160079</v>
+        <v>0.015270079970218843</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04864956813530477</v>
+        <v>0.05987556959131103</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.17209449602688293</v>
+        <v>0.11304388759179948</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7538395940771406</v>
+        <v>0.7116837205194009</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7677752458595323</v>
+        <v>0.7611473916574619</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8605845976612043</v>
+        <v>0.8837538194244536</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23110115555534724</v>
+        <v>0.20983400310114636</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.3061731454999053</v>
+        <v>3.1866823516781597</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.013545167399729956</v>
+        <v>0.015138177835514454</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.042627945059709856</v>
+        <v>0.05977891954688346</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17209449602688293</v>
+        <v>0.1153034843965896</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7541514308173133</v>
+        <v>0.7006485376400076</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7684652839096283</v>
+        <v>0.7546161112273856</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.861649716950403</v>
+        <v>0.857435047538052</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23179029121648767</v>
+        <v>0.20399315121583866</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.319006742857878</v>
+        <v>3.0752471769923444</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.013537184660723624</v>
+        <v>0.015633779625489792</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04276085888168036</v>
+        <v>0.05428220343232261</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.17209449602688293</v>
+        <v>0.1124544371977664</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7012114029897941</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.754947922718603</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8582164764927996</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20428441092674465</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0807652442451436</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.01560649299513635</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05463343479604557</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1153034843965896</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>764.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.674119800631453</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6966530855039184</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6918991248132249</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5854897521337616</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.18717277486911</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1765702500632236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6109448314259093</v>
+        <v>0.37282621648694425</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6290944860603184</v>
+        <v>0.4669696650141001</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6120615154428559</v>
+        <v>0.4205364484954796</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.49841191773620463</v>
+        <v>0.34622086601632607</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.681937172774869</v>
+        <v>0.9463350785340314</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.303142050750995</v>
+        <v>0.22550289865097928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6548826986675442</v>
+        <v>0.6115879643116695</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6839539800453172</v>
+        <v>0.6471471694076857</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6689791829574498</v>
+        <v>0.6312255349364309</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5747348045319152</v>
+        <v>0.49690992548513796</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3612565445026177</v>
+        <v>3.18717277486911</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0381284158307578</v>
+        <v>1.1765702500632236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6272295131221612</v>
+        <v>0.5401845083622603</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6468413127493008</v>
+        <v>0.5724172167464994</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6201656348575422</v>
+        <v>0.551101845069682</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5239573739646747</v>
+        <v>0.3975184250582886</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.6910994764397906</v>
+        <v>3.681937172774869</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2388953543922583</v>
+        <v>1.303142050750995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.531668273898893</v>
+        <v>0.5740208842128243</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5271769485130541</v>
+        <v>0.616522230957053</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5476295271965543</v>
+        <v>0.6463733423494437</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.40687648697961143</v>
+        <v>0.5418965300668657</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.4869109947643979</v>
+        <v>0.13481675392670156</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.2916046639963796</v>
+        <v>0.3417514719864634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5309910850916941</v>
+        <v>0.5875020670612235</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5261388152953251</v>
+        <v>0.6215310747188078</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5464781112885253</v>
+        <v>0.6523763129737954</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4002880924318048</v>
+        <v>0.4549739608502332</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.5078534031413613</v>
+        <v>0.4869109947643979</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3453248398605966</v>
+        <v>1.2916046639963796</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.39751893667037724</v>
+        <v>0.5875669431539885</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.37269583676434803</v>
+        <v>0.6217127032201627</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.30858687511750743</v>
+        <v>0.6529295595784318</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.25771234172341373</v>
+        <v>0.44870029127178257</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.3416230366492146</v>
+        <v>0.5078534031413613</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2778157495082856</v>
+        <v>1.3453248398605966</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.40923312862817507</v>
+        <v>0.31022634119731535</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.37043419312772147</v>
+        <v>0.38745613333366824</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3051870772261936</v>
+        <v>0.2997493889613748</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.22686210805203516</v>
+        <v>0.2776871875328122</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.3468586387434556</v>
+        <v>0.925392670157068</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6451535164548565</v>
+        <v>0.2629288164408959</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.49999114466696576</v>
+        <v>0.4338107553367997</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4858056038390647</v>
+        <v>0.4176127626630836</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.38755198840526295</v>
+        <v>0.3710772423380628</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3557020757354164</v>
+        <v>0.2788403153796715</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.1465968586387434</v>
+        <v>2.3416230366492146</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4250985350644374</v>
+        <v>1.2778157495082856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.4994646564870283</v>
+        <v>0.43851202594663846</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4925136296688958</v>
+        <v>0.3911519420744836</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.39569019740209643</v>
+        <v>0.33144172945070893</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3593889352794504</v>
+        <v>0.23451545450566225</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2408376963350785</v>
+        <v>2.3468586387434556</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3869291837649675</v>
+        <v>1.6451535164548565</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5453173757692467</v>
+        <v>0.5225462087771658</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.551566595586987</v>
+        <v>0.4655472568523424</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5339815264175407</v>
+        <v>0.37076934530755495</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4236205428502292</v>
+        <v>0.3614288342060124</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.8835078534031413</v>
+        <v>1.1465968586387434</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2823186113084764</v>
+        <v>1.4250985350644374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>764.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5363437249617328</v>
+        <v>0.5051988463006695</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5457610239176168</v>
+        <v>0.4586653976784953</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5267264056493344</v>
+        <v>0.36382193034663884</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.42449871052701377</v>
+        <v>0.34603842015615816</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2408376963350785</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3869291837649675</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>764.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.55994960342287</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5162336794284962</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.49937782447257156</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.42333322386212735</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.8835078534031413</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2823186113084764</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>764.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5498811571457216</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.513362981552723</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.49530610086976157</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4242884919727337</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.6583769633507854</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.1763486097596911</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.05366492146596859</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07460732984293193</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.009162303664921465</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4162303664921466</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.38612565445026176</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.060209424083769635</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.05366492146596859</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.007853403141361256</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.051047120418848166</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3206806282722513</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2238219895287958</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.34293193717277487</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.01832460732984293</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0693717277486911</v>
+        <v>0.9463350785340314</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02225130890052356</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.39528795811518325</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.412303664921466</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.0824607329842932</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.01832460732984293</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.032722513089005235</v>
+        <v>0.07460732984293193</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.06413612565445026</v>
+        <v>0.009162303664921465</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.39659685863874344</v>
+        <v>0.4162303664921466</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.10078534031413612</v>
+        <v>0.38612565445026176</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.387434554973822</v>
+        <v>0.060209424083769635</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8651832460732984</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.009162303664921465</v>
+        <v>0.007853403141361256</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.003926701570680628</v>
+        <v>0.051047120418848166</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.041884816753926704</v>
+        <v>0.3206806282722513</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.0549738219895288</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.024869109947643978</v>
+        <v>0.34293193717277487</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8651832460732984</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.003926701570680628</v>
+        <v>0.13481675392670156</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.005235602094240838</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.056282722513089</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.02225130890052356</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.04712041884816754</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.07460732984293193</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.2617801047120419</v>
+        <v>0.009162303664921465</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.10732984293193717</v>
+        <v>0.003926701570680628</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.38089005235602097</v>
+        <v>0.041884816753926704</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.1544502617801047</v>
+        <v>0.0549738219895288</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.020942408376963352</v>
+        <v>0.024869109947643978</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.07460732984293193</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.35471204188481675</v>
+        <v>0.003926701570680628</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.18717277486910994</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10863874345549739</v>
+        <v>0.056282722513089</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.0824607329842932</v>
+        <v>0.02225130890052356</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.19240837696335078</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5405759162303665</v>
+        <v>0.07460732984293193</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.12041884816753927</v>
+        <v>0.925392670157068</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05366492146596859</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22251308900523561</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.06282722513089005</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.20287958115183247</v>
+        <v>0.07460732984293193</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.11910994764397906</v>
+        <v>0.2617801047120419</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05366492146596859</v>
+        <v>0.10732984293193717</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4829842931937173</v>
+        <v>0.38089005235602097</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14136125654450263</v>
+        <v>0.1544502617801047</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.020942408376963352</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2238219895287958</v>
+        <v>0.07460732984293193</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.10732984293193717</v>
+        <v>0.35471204188481675</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.337696335078534</v>
+        <v>0.18717277486910994</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2238219895287958</v>
+        <v>0.10863874345549739</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.10732984293193717</v>
+        <v>0.0824607329842932</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.19240837696335078</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.25523560209424084</v>
+        <v>0.5405759162303665</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10340314136125654</v>
+        <v>0.12041884816753927</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4201570680628272</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.17015706806282724</v>
+        <v>0.22251308900523561</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.051047120418848166</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.20287958115183247</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.11910994764397906</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4829842931937173</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14136125654450263</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2238219895287958</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.10732984293193717</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.337696335078534</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2238219895287958</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.10732984293193717</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.25523560209424084</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10340314136125654</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4201570680628272</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.17015706806282724</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.051047120418848166</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8698783985677985</v>
+        <v>0.8769992470648114</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8729988762153165</v>
+        <v>0.9854525294963944</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8762098533040165</v>
+        <v>0.9783822779377609</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.63214825852261</v>
+        <v>0.9575914623891721</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.873946073858292</v>
+        <v>67.74047276824825</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.007778418757981735</v>
+        <v>0.0013395953176455347</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.480366492146597</v>
+        <v>0.37652705061082026</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0119408297745842</v>
+        <v>0.9806762247889986</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.649976976974905</v>
+        <v>0.9569246317721675</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8205325292643414</v>
+        <v>0.9792951240238583</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8262388474708534</v>
+        <v>0.9797099780661234</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7686070853825567</v>
+        <v>0.9602269521455898</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.613154115794106</v>
+        <v>0.9602269521455897</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.755026284325894</v>
+        <v>48.285308969054235</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.011136501963368043</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.005749948171696958</v>
-      </c>
+        <v>0.001482439410778758</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6128580412897342</v>
+        <v>0.9602269521455897</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8303573224888777</v>
+        <v>0.6270354453699023</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8367688881835463</v>
+        <v>0.9779882334104895</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7904947631323072</v>
+        <v>0.9569246317721672</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6308275300082112</v>
+        <v>0.9569246317721674</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>5.12628308949128</v>
+        <v>44.430247314931215</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.010854838480654477</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.009845917442965717</v>
-      </c>
+        <v>0.004203422142512227</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6870959126600757</v>
+        <v>0.9569246317721675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8341213006821391</v>
+        <v>0.6418736324011853</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8341598298627139</v>
+        <v>0.9773078956348347</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7902848019751936</v>
+        <v>0.9556228032497591</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6263964441276672</v>
+        <v>0.9556228032497591</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.02990215924271</v>
+        <v>43.06819146905993</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.010463310839251644</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.013805204021984516</v>
-      </c>
+        <v>0.004284074154743365</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6128580412897342</v>
+        <v>0.9556228032497591</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8494929600233474</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.852451801989444</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8147649593853208</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.658214944160456</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.777446376732147</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.009322578921344964</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.011925333569345217</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6870959126600757</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>764.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9732783516458374</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9848712822660074</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9727995687585655</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9659357348244865</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.13481675392670156</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3417514719864634</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>764.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8663811451023191</v>
+        <v>0.98911589803659</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8676881151127822</v>
+        <v>0.9859879543797444</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.830643478573697</v>
+        <v>0.9756478897029233</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7554064261280379</v>
+        <v>0.9660397395477529</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.18717277486911</v>
+        <v>0.4869109947643979</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1765702500632236</v>
+        <v>1.2916046639963796</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>764.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8653895000627903</v>
+        <v>0.989993359552072</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8521112847975917</v>
+        <v>0.9864281647298793</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.80027556959045</v>
+        <v>0.9767003893659846</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.735170604865458</v>
+        <v>0.96665985270205</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.681937172774869</v>
+        <v>0.5078534031413613</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.303142050750995</v>
+        <v>1.3453248398605966</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>764.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8401455505330345</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8560167142769837</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8022200623785583</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7325579965444817</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3612565445026177</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0381284158307578</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>764.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.830175541183985</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8279728190855798</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7530143395619653</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6849477971625899</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.6910994764397906</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2388953543922583</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8651832460732984</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.13481675392670156</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8651832460732984</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.009162303664921465</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.003926701570680628</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.041884816753926704</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.0549738219895288</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.024869109947643978</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.05366492146596859</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.07460732984293193</v>
+        <v>0.003926701570680628</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.009162303664921465</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.4162303664921466</v>
+        <v>0.056282722513089</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.38612565445026176</v>
+        <v>0.02225130890052356</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.060209424083769635</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.05366492146596859</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.007853403141361256</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.051047120418848166</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3206806282722513</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2238219895287958</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.34293193717277487</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01832460732984293</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0693717277486911</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02225130890052356</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.39528795811518325</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.412303664921466</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0824607329842932</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01832460732984293</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.032722513089005235</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.06413612565445026</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.39659685863874344</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.10078534031413612</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.387434554973822</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7871778127466238</v>
+        <v>0.6656322463803408</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.802306974641759</v>
+        <v>0.773222929636149</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6698769698535914</v>
+        <v>0.7178537243430171</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6698769698535914</v>
+        <v>0.5319533053299588</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.058347395857252</v>
+        <v>3.409616891141405</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01456195612951651</v>
+        <v>0.011222521244470294</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.344240837696335</v>
+        <v>1.8712914485165795</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3375143020197175</v>
+        <v>0.9384038864346226</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6698769698535914</v>
+        <v>0.5206679875501635</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.7871778127466238</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.802306974641759</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.6698769698535914</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.6698769698535914</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.4487351547402294</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6698769698535914</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6698769698535914</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.058347395857252</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01456195612951651</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6698769698535914</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.4487351547402294</v>
+        <v>0.22431881933073772</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6698769698535914</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.4487351547402294</v>
-      </c>
+        <v>0.5768314869342972</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4053149585861211</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4053149585861213</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.3631247815565524</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.016121237206831954</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6698769698535914</v>
+        <v>0.4053149585861212</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3410285737218075</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6847885163795331</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5206679875501634</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5206679875501634</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.172473250384681</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.0164229784720228</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5206679875501635</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>764.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8896600950215341</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9137496839544164</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7478676769970143</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6698769698535912</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.3416230366492146</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2778157495082856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>764.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9349929398847622</v>
+        <v>0.5665832959008872</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9137496839544164</v>
+        <v>0.7740103870983763</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7478676769970143</v>
+        <v>0.5705543077278407</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6698769698535915</v>
+        <v>0.4979846129998454</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.925392670157068</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.2629288164408959</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>764.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8939877793780545</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.880332068276009</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8127861250186306</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7007089897617307</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.3416230366492146</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2778157495082856</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>764.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9262897986712383</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8339742109644775</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.724916938039929</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6719768030666439</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.3468586387434556</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6451535164548565</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.07460732984293193</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.925392670157068</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.07460732984293193</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.2617801047120419</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.10732984293193717</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.38089005235602097</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.1544502617801047</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.020942408376963352</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.07460732984293193</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.35471204188481675</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.18717277486910994</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.10863874345549739</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.0824607329842932</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.19240837696335078</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.897061451466775</v>
+        <v>0.7384510316291788</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8988997792259252</v>
+        <v>0.8695442344987777</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8163650885420741</v>
+        <v>0.8208182282062617</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8163650885420743</v>
+        <v>0.6896155781900702</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.89117523526151</v>
+        <v>6.665433537244699</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.007366468045579368</v>
+        <v>0.007555003654758784</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.7709424083769634</v>
+        <v>2.6051483420593367</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1716478753149224</v>
+        <v>0.8280943003000754</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8163650885420742</v>
+        <v>0.6732739394444756</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8163650885420742</v>
+        <v>0.8546403712296984</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8163650885420742</v>
+        <v>0.8571916687433045</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6664519577903085</v>
+        <v>0.7500747459555961</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8163650885420742</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8163650885420742</v>
-      </c>
+        <v>0.7500747459555961</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.00239258592356</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.010394113474785248</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8163650885420742</v>
+        <v>0.7500747459555961</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6664519577903085</v>
+        <v>0.3689971141356161</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8163650885420742</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6664519577903085</v>
-      </c>
+        <v>0.8047384514552369</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6732739394444754</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6732739394444756</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.121336010355122</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.011645967407873516</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8163650885420742</v>
+        <v>0.6732739394444756</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3853606568134358</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7845625213541614</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6454980491701394</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6454980491701392</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.641717895538119</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.012932841016040851</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6454980491701392</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>764.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9570488691700569</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9529861196633649</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8610508249611002</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8163650885420741</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.8835078534031413</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2823186113084764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>764.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9487444151350181</v>
+        <v>0.7496522562983594</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9529861196633649</v>
+        <v>0.8679188061292135</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8610508249611002</v>
+        <v>0.7507572908303661</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8163650885420742</v>
+        <v>0.7055247951899807</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.6583769633507854</v>
+        <v>0.9463350785340314</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.1763486097596911</v>
+        <v>0.22550289865097928</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>764.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9256537864719239</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8966654291797694</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.823921072209092</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7668306114532671</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.18717277486911</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1765702500632236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>764.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9409085037174882</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9070619742667579</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8458068996339685</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7757734420866083</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.681937172774869</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.303142050750995</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9463350785340314</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07460732984293193</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.009162303664921465</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.4162303664921466</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.38612565445026176</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.060209424083769635</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.007853403141361256</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.051047120418848166</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3206806282722513</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.2238219895287958</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.10732984293193717</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.337696335078534</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2238219895287958</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.10732984293193717</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.25523560209424084</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10340314136125654</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4201570680628272</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.17015706806282724</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.051047120418848166</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.34293193717277487</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9792951240238583</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9797099780661234</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9602269521455898</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9602269521455897</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>48.285308969054235</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.001482439410778758</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.4973821989528796</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.3052945738436876</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9602269521455897</v>
+      <c r="A6" t="n" s="491">
+        <v>0.537195914388986</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5373407069541611</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.3673724356102124</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.1614177322942547</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.03347306740657643</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.693717277486911</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1626166103280413</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3673724356102123</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9602269521455896</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9602269521455896</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9220357996268088</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9602269521455896</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9602269521455896</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9602269521455896</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.13496250644617946</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.36737243561021227</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9220357996268088</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9602269521455896</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9220357996268088</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9602269521455896</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.13496250644617946</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.13496250644617946</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.36737243561021227</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>764.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9895934168385063</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9900068060739758</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9701192585894785</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.96022695214559</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.4869109947643979</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.2916046639963796</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8320103420753595</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8268532020891655</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5011661112128353</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.1465968586387434</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4250985350644374</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>764.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.990411858578865</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9900068060739757</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9701192585894785</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9602269521455897</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.5078534031413613</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3453248398605966</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8216255843089499</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8268532020891655</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5011661112128352</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.36737243561021227</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2408376963350785</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3869291837649675</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8651832460732984</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.009162303664921465</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.003926701570680628</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.041884816753926704</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.0549738219895288</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.024869109947643978</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5405759162303665</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.12041884816753927</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22251308900523561</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.06282722513089005</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8651832460732984</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.003926701570680628</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.005235602094240838</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.056282722513089</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.02225130890052356</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.04712041884816754</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.20287958115183247</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.11910994764397906</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05366492146596859</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4829842931937173</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14136125654450263</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.537195914388986</v>
+        <v>0.897061451466775</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5373407069541611</v>
+        <v>0.8988997792259252</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420741</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.3673724356102124</v>
+        <v>0.8163650885420743</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.1614177322942547</v>
+        <v>8.89117523526151</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.03347306740657643</v>
+        <v>0.007366468045579368</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.693717277486911</v>
+        <v>1.7709424083769634</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1626166103280413</v>
+        <v>1.1716478753149224</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3673724356102123</v>
+        <v>0.8163650885420742</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.13496250644617946</v>
+        <v>0.6664519577903085</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.13496250644617946</v>
+        <v>0.6664519577903085</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.13496250644617946</v>
+        <v>0.6664519577903085</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>764.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8320103420753595</v>
+        <v>0.9570488691700569</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8268532020891655</v>
+        <v>0.9529861196633649</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5011661112128353</v>
+        <v>0.8610508249611002</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420741</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.1465968586387434</v>
+        <v>1.8835078534031413</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4250985350644374</v>
+        <v>1.2823186113084764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>764.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8216255843089499</v>
+        <v>0.9487444151350181</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8268532020891655</v>
+        <v>0.9529861196633649</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5011661112128352</v>
+        <v>0.8610508249611002</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.36737243561021227</v>
+        <v>0.8163650885420742</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2408376963350785</v>
+        <v>1.6583769633507854</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3869291837649675</v>
+        <v>1.1763486097596911</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5405759162303665</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.12041884816753927</v>
+        <v>0.10732984293193717</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05366492146596859</v>
+        <v>0.337696335078534</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22251308900523561</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.06282722513089005</v>
+        <v>0.10732984293193717</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.20287958115183247</v>
+        <v>0.25523560209424084</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.11910994764397906</v>
+        <v>0.10340314136125654</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05366492146596859</v>
+        <v>0.4201570680628272</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4829842931937173</v>
+        <v>0.17015706806282724</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14136125654450263</v>
+        <v>0.051047120418848166</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7981170346808445</v>
+        <v>0.7555556801163896</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8046787292352181</v>
+        <v>0.7937594066536874</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8953931585061081</v>
+        <v>0.8960904645213537</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2917731707904588</v>
+        <v>0.2779108742427438</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.119770089988113</v>
+        <v>3.8487059883542516</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.01126909241701562</v>
+        <v>0.012948744525850271</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.1845549738219896</v>
+        <v>1.587434554973822</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7573127533657102</v>
+        <v>0.6545729568723482</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.21738944570438465</v>
+        <v>0.19354172143380524</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7653780005165389</v>
+        <v>0.744649371729873</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7709355302099717</v>
+        <v>0.766242807911893</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8635820596806387</v>
+        <v>0.8719768503666483</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2721734302608652</v>
+        <v>0.26697820448283593</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.3655831954936053</v>
+        <v>3.2779432413060636</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.01317060059375343</v>
+        <v>0.013847705961787221</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.0409858586743343</v>
+        <v>0.04911892402048062</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.21373178872317927</v>
+        <v>0.19626554957905917</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7722860054101419</v>
+        <v>0.7258730823345335</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7787385854209794</v>
+        <v>0.7659566084477522</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8711375459098385</v>
+        <v>0.8715508973140051</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2811237957193981</v>
+        <v>0.26666575213106614</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.5195408422324035</v>
+        <v>3.2727119675018055</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.012799827550388648</v>
+        <v>0.014195572489505879</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04117429770957244</v>
+        <v>0.04891492277733066</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21930350859942632</v>
+        <v>0.19485997799791524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7706469775476442</v>
+        <v>0.7272207375563287</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.774267709130487</v>
+        <v>0.7660149292930782</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8699995963847074</v>
+        <v>0.871163143423996</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.27594682942186904</v>
+        <v>0.2667293822917983</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.430026365071804</v>
+        <v>3.273776942173166</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.012887056598683227</v>
+        <v>0.014099901502215658</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04197046604448803</v>
+        <v>0.048856222643146555</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.21581731175275432</v>
+        <v>0.19758380614316917</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7730749953130039</v>
+        <v>0.7560553921085108</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7791651901279847</v>
+        <v>0.7859786128365389</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8755294524402456</v>
+        <v>0.8910272050050696</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2816247699358018</v>
+        <v>0.2897968397409596</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.5282716098044022</v>
+        <v>3.672430233508576</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.012766181600455645</v>
+        <v>0.013417361749330711</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04341027615882199</v>
+        <v>0.06526777443642359</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2222774437091147</v>
+        <v>0.20604022649537898</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.781831490399308</v>
+        <v>0.7215247426856028</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7896103565415489</v>
+        <v>0.7637752053631375</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8674378519772056</v>
+        <v>0.8761975628929872</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.29428843881376726</v>
+        <v>0.26430051892304246</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.7530856726675585</v>
+        <v>3.2332558761973065</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.012191898120910177</v>
+        <v>0.01469250984320594</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.0438032996945269</v>
+        <v>0.06866207097229271</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.22029971862467818</v>
+        <v>0.1547885171808297</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7825416996856234</v>
+        <v>0.7335666072985295</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7911354292596529</v>
+        <v>0.77194298433005</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8687085756035156</v>
+        <v>0.878115422498835</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.29620372247993554</v>
+        <v>0.273306771310448</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.787791421280173</v>
+        <v>3.3848683938196675</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.012175431696781857</v>
+        <v>0.014023961360606688</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04338229325088398</v>
+        <v>0.0666321099635736</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21930350859942632</v>
+        <v>0.19485997799791524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7866458128055661</v>
+        <v>0.7408599307319186</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7954939511805463</v>
+        <v>0.7876425699356736</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.851662267963238</v>
+        <v>0.9026111425626482</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.301775169997115</v>
+        <v>0.2918427533171154</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.8898309158710567</v>
+        <v>3.709041730713564</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.011807982411630596</v>
+        <v>0.013857535360752472</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03682116083184475</v>
+        <v>0.07672560916296181</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2222774437091147</v>
+        <v>0.17370423284114483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7879840018340935</v>
+        <v>0.7437572647149687</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7956881415682839</v>
+        <v>0.7892648031476659</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8518611863370362</v>
+        <v>0.9029829019727674</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.30202683307457945</v>
+        <v>0.29385688875763255</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.894478507884621</v>
+        <v>3.7452917924323645</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.011719798934334023</v>
+        <v>0.01364982274258404</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03678675530249011</v>
+        <v>0.0759528763421208</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2222774437091147</v>
+        <v>0.19294811846280577</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7927019641780687</v>
+        <v>0.7271029712683283</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7992954471522695</v>
+        <v>0.7789111700957959</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9011849381848857</v>
+        <v>0.8683270607425231</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.30675632262574876</v>
+        <v>0.28132631812741365</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.9824480103282687</v>
+        <v>3.5230688517067614</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.011729489684596696</v>
+        <v>0.01437257905626183</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05156755145469263</v>
+        <v>0.0685125589041845</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2222774437091147</v>
+        <v>0.19294811846280577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7918738260176965</v>
+        <v>0.7289847035762198</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7985818155553674</v>
+        <v>0.7814300647584675</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.900748216689021</v>
+        <v>0.8699981028557575</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3058123955755073</v>
+        <v>0.2843053133451257</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.964795024626426</v>
+        <v>3.575194657467148</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.011786252609488033</v>
+        <v>0.014290663495220466</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05117197695256135</v>
+        <v>0.06782711120967477</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.21519927841403208</v>
+        <v>0.19485997799791524</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.7029544904779823</v>
+        <v>0.6157237797689915</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7193360644287141</v>
+        <v>0.6582243316410523</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.7079651516621581</v>
+        <v>0.6835637505678832</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.6100533572155181</v>
+        <v>0.5817055639527511</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.18717277486911</v>
+        <v>0.13481675392670156</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1765702500632236</v>
+        <v>0.3417514719864634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6554458595823371</v>
+        <v>0.6251559855760922</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6658264461809371</v>
+        <v>0.6601253134935993</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.642527498828865</v>
+        <v>0.6864336970565189</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5390666603984654</v>
+        <v>0.48067690969413873</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.681937172774869</v>
+        <v>0.4869109947643979</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.303142050750995</v>
+        <v>1.2916046639963796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6715932290109564</v>
+        <v>0.6244537124632134</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6967768572614466</v>
+        <v>0.6597381831675148</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.674000837894784</v>
+        <v>0.6863921768242186</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5850615627868757</v>
+        <v>0.4726602461689166</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3612565445026177</v>
+        <v>0.5078534031413613</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0381284158307578</v>
+        <v>1.3453248398605966</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6474006252063002</v>
+        <v>0.4216188708742431</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6628313797564497</v>
+        <v>0.5193941667218831</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6277405076608238</v>
+        <v>0.4611744141785051</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5359331052190225</v>
+        <v>0.3926777305439804</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.6910994764397906</v>
+        <v>0.9463350785340314</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2388953543922583</v>
+        <v>0.22550289865097928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5881888344447047</v>
+        <v>0.6401985777992028</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.58712183578133</v>
+        <v>0.6745155569340049</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5640180351096427</v>
+        <v>0.6461529093709236</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.45990679248622696</v>
+        <v>0.5141071051044365</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.8835078534031413</v>
+        <v>3.18717277486911</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2823186113084764</v>
+        <v>1.1765702500632236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5729765843050371</v>
+        <v>0.5873125371123107</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.575671342693904</v>
+        <v>0.619720890640277</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5509959092024609</v>
+        <v>0.588757332087541</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.454035364569448</v>
+        <v>0.4324927896792828</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.6583769633507854</v>
+        <v>3.681937172774869</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.1763486097596911</v>
+        <v>1.303142050750995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5546433430367802</v>
+        <v>0.5719807743474832</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5423625318846671</v>
+        <v>0.5069466861440531</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5597112026912006</v>
+        <v>0.39505417498205997</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.41910460494777935</v>
+        <v>0.3964929145344435</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.4869109947643979</v>
+        <v>1.1465968586387434</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.2916046639963796</v>
+        <v>1.4250985350644374</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5532673878922721</v>
+        <v>0.5500495558068929</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5408579681587976</v>
+        <v>0.4946925459549726</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5580761280791056</v>
+        <v>0.3824001178070856</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.41106636820891795</v>
+        <v>0.3753232825158072</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.5078534031413613</v>
+        <v>2.2408376963350785</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3453248398605966</v>
+        <v>1.3869291837649675</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5357001119757407</v>
+        <v>0.617983870735432</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.512582789724754</v>
+        <v>0.5709294097045374</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.40301630561551877</v>
+        <v>0.5457298157861555</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.380585219490381</v>
+        <v>0.47301247172220334</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.1465968586387434</v>
+        <v>1.8835078534031413</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4250985350644374</v>
+        <v>1.2823186113084764</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>764.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5337374588830671</v>
+        <v>0.598147582330595</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5182260426562881</v>
+        <v>0.5528049954838781</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4098940768737752</v>
+        <v>0.5255825667728196</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.382981245333261</v>
+        <v>0.4628448957122789</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2408376963350785</v>
+        <v>1.6583769633507854</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3869291837649675</v>
+        <v>1.1763486097596911</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.05366492146596859</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07460732984293193</v>
+        <v>0.13481675392670156</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.009162303664921465</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.4162303664921466</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.38612565445026176</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.060209424083769635</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.05366492146596859</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.007853403141361256</v>
+        <v>0.009162303664921465</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.051047120418848166</v>
+        <v>0.003926701570680628</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3206806282722513</v>
+        <v>0.041884816753926704</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.2238219895287958</v>
+        <v>0.0549738219895288</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.34293193717277487</v>
+        <v>0.024869109947643978</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.01832460732984293</v>
+        <v>0.8651832460732984</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0693717277486911</v>
+        <v>0.003926701570680628</v>
       </c>
       <c r="D41" t="n" s="799">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="E41" t="n" s="800">
+        <v>0.056282722513089</v>
+      </c>
+      <c r="F41" t="n" s="801">
         <v>0.02225130890052356</v>
       </c>
-      <c r="E41" t="n" s="800">
-        <v>0.39528795811518325</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.412303664921466</v>
-      </c>
       <c r="G41" t="n" s="802">
-        <v>0.0824607329842932</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.01832460732984293</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.032722513089005235</v>
+        <v>0.9463350785340314</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.06413612565445026</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.39659685863874344</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.10078534031413612</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.387434554973822</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2238219895287958</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.10732984293193717</v>
+        <v>0.07460732984293193</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.337696335078534</v>
+        <v>0.009162303664921465</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2238219895287958</v>
+        <v>0.4162303664921466</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.10732984293193717</v>
+        <v>0.38612565445026176</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.060209424083769635</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.25523560209424084</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10340314136125654</v>
+        <v>0.007853403141361256</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4201570680628272</v>
+        <v>0.051047120418848166</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.17015706806282724</v>
+        <v>0.3206806282722513</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.051047120418848166</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.34293193717277487</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8651832460732984</v>
+        <v>0.5405759162303665</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.009162303664921465</v>
+        <v>0.12041884816753927</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.003926701570680628</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.041884816753926704</v>
+        <v>0.22251308900523561</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.0549738219895288</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.024869109947643978</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8651832460732984</v>
+        <v>0.20287958115183247</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.003926701570680628</v>
+        <v>0.11910994764397906</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.005235602094240838</v>
+        <v>0.05366492146596859</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.056282722513089</v>
+        <v>0.4829842931937173</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.02225130890052356</v>
+        <v>0.14136125654450263</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.04712041884816754</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5405759162303665</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.12041884816753927</v>
+        <v>0.10732984293193717</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05366492146596859</v>
+        <v>0.337696335078534</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22251308900523561</v>
+        <v>0.2238219895287958</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.06282722513089005</v>
+        <v>0.10732984293193717</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.20287958115183247</v>
+        <v>0.25523560209424084</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.11910994764397906</v>
+        <v>0.10340314136125654</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05366492146596859</v>
+        <v>0.4201570680628272</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4829842931937173</v>
+        <v>0.17015706806282724</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14136125654450263</v>
+        <v>0.051047120418848166</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
